--- a/wash_P/NGR.xlsx
+++ b/wash_P/NGR.xlsx
@@ -62183,7 +62183,7 @@
         <v>0</v>
       </c>
       <c r="CB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC20" t="n">
         <v>0</v>
@@ -62198,7 +62198,7 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH20" t="n">
         <v>0</v>
@@ -62225,7 +62225,7 @@
         <v>0</v>
       </c>
       <c r="CP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ20" t="n">
         <v>0</v>
@@ -62474,7 +62474,7 @@
         <v>0</v>
       </c>
       <c r="FU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV20" t="n">
         <v>0</v>
@@ -62894,7 +62894,7 @@
         <v>0</v>
       </c>
       <c r="LE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF20" t="n">
         <v>0</v>
@@ -65353,7 +65353,7 @@
         <v>0</v>
       </c>
       <c r="CP21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CQ21" t="n">
         <v>0</v>
@@ -68439,7 +68439,7 @@
         <v>0</v>
       </c>
       <c r="CB22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CC22" t="n">
         <v>0</v>
@@ -68454,7 +68454,7 @@
         <v>0</v>
       </c>
       <c r="CG22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CH22" t="n">
         <v>0</v>
@@ -68481,7 +68481,7 @@
         <v>0</v>
       </c>
       <c r="CP22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CQ22" t="n">
         <v>0</v>
@@ -68745,7 +68745,7 @@
         <v>0</v>
       </c>
       <c r="FZ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA22" t="n">
         <v>0</v>
@@ -69150,7 +69150,7 @@
         <v>0</v>
       </c>
       <c r="LE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF22" t="n">
         <v>0</v>
@@ -69282,7 +69282,7 @@
         <v>0</v>
       </c>
       <c r="MW22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX22" t="n">
         <v>0</v>
@@ -70578,7 +70578,7 @@
         <v>0</v>
       </c>
       <c r="ADM22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADN22" t="n">
         <v>0</v>
@@ -71265,7 +71265,7 @@
         <v>0</v>
       </c>
       <c r="AMH22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMI22" t="n">
         <v>0</v>
@@ -71567,7 +71567,7 @@
         <v>0</v>
       </c>
       <c r="CB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC23" t="n">
         <v>0</v>
@@ -71582,7 +71582,7 @@
         <v>0</v>
       </c>
       <c r="CG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH23" t="n">
         <v>0</v>
@@ -71609,7 +71609,7 @@
         <v>0</v>
       </c>
       <c r="CP23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ23" t="n">
         <v>0</v>
@@ -74393,7 +74393,7 @@
         <v>0</v>
       </c>
       <c r="AMH23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMI23" t="n">
         <v>0</v>
@@ -74695,10 +74695,10 @@
         <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD24" t="n">
         <v>0</v>
@@ -84790,7 +84790,7 @@
         <v>0</v>
       </c>
       <c r="LE27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LF27" t="n">
         <v>0</v>
@@ -87369,7 +87369,7 @@
         <v>0</v>
       </c>
       <c r="ED28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE28" t="n">
         <v>0</v>
@@ -93206,7 +93206,7 @@
         <v>0</v>
       </c>
       <c r="AMW29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AMX29" t="n">
         <v>0</v>
@@ -93218,7 +93218,7 @@
         <v>0</v>
       </c>
       <c r="ANA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANB29" t="n">
         <v>0</v>
